--- a/Documentação/analytics.xlsx
+++ b/Documentação/analytics.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUISFERNANDOPOMAMAMA\Desktop\Meus-arquivos\Bandtec\PI\SenSolutions\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Documents\SenSolutions\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{2C9CE660-AFBE-47B5-B691-D2A61FBE4CCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1E2409F-9CBB-4EA7-8FC7-C332664EC3B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Temperatura</t>
   </si>
@@ -56,15 +55,33 @@
   <si>
     <t>Valor máximo</t>
   </si>
+  <si>
+    <t>CORRELATIVA</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Ideal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Especificação Técnica </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avícolas </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +103,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +169,44 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,8 +229,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -161,21 +251,55 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% - Ênfase2" xfId="5" builtinId="34"/>
     <cellStyle name="40% - Ênfase1" xfId="2" builtinId="31"/>
     <cellStyle name="60% - Ênfase1" xfId="3" builtinId="32"/>
@@ -183,6 +307,7 @@
     <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
     <cellStyle name="Ênfase2" xfId="4" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="7" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -237,6 +362,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -306,58 +432,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,6 +624,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -505,7 +632,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -555,6 +681,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -635,58 +762,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>69</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>67</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>68</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,6 +954,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -834,7 +962,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -843,6 +970,428 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36045122484689412"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-709E-4CCA-9373-ED23D180DEDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="438261855"/>
+        <c:axId val="1612328687"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="438261855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1612328687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1612328687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438261855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -912,6 +1461,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1918,17 +2507,593 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
@@ -1958,13 +3123,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>185737</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>490537</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1987,6 +3152,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2291,143 +3486,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D277D60-B183-42B7-A417-FA66ACE2D9C9}">
-  <dimension ref="B1:T24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2">
-        <v>68</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="21">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
         <v>65</v>
@@ -2435,127 +3632,260 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
         <v>66</v>
       </c>
+      <c r="I17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>34</v>
-      </c>
-      <c r="C17" s="2">
-        <v>67</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>68</v>
-      </c>
-      <c r="G18" s="4">
+        <v>50</v>
+      </c>
+      <c r="I18" s="11">
         <f>QUARTILE(B2:B19,0)</f>
-        <v>30</v>
-      </c>
-      <c r="H18" s="4">
+        <v>18</v>
+      </c>
+      <c r="J18" s="8">
         <f>QUARTILE(B2:B19,1)</f>
-        <v>31</v>
-      </c>
-      <c r="I18" s="5">
+        <v>20.25</v>
+      </c>
+      <c r="K18" s="10">
         <f>AVERAGE(B2:B19)</f>
-        <v>31.888888888888889</v>
-      </c>
-      <c r="J18" s="4">
-        <f>QUARTILE(B2:B19,2)</f>
-        <v>32</v>
-      </c>
-      <c r="K18" s="4">
+        <v>22.222222222222221</v>
+      </c>
+      <c r="L18" s="9">
+        <f>MEDIAN(B2:B19)</f>
+        <v>22</v>
+      </c>
+      <c r="M18" s="14">
         <f>QUARTILE(B2:B19,3)</f>
-        <v>33</v>
-      </c>
-      <c r="L18" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="N18" s="15">
         <f>QUARTILE(B2:B19,4)</f>
-        <v>34</v>
-      </c>
-      <c r="O18" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="16">
         <f>QUARTILE(C2:C19,0)</f>
-        <v>59</v>
-      </c>
-      <c r="P18" s="7">
+        <v>40</v>
+      </c>
+      <c r="R18" s="18">
         <f>QUARTILE(C2:C19,1)</f>
-        <v>65.25</v>
-      </c>
-      <c r="Q18" s="7">
+        <v>50</v>
+      </c>
+      <c r="S18" s="17">
         <f>AVERAGE(C2:C19)</f>
-        <v>68.611111111111114</v>
-      </c>
-      <c r="R18" s="7">
-        <f>QUARTILE(C2:C19,)</f>
-        <v>59</v>
-      </c>
-      <c r="S18" s="7">
+        <v>56.444444444444443</v>
+      </c>
+      <c r="T18" s="17">
+        <f>MEDIAN(C2:C19,)</f>
+        <v>55</v>
+      </c>
+      <c r="U18" s="18">
         <f>QUARTILE(C2:C19,3)</f>
-        <v>70</v>
-      </c>
-      <c r="T18" s="7">
+        <v>63.75</v>
+      </c>
+      <c r="V18" s="16">
         <f>QUARTILE(C2:C19,4)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2">
-        <v>70</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="20">
+        <f>(K18-L18)</f>
+        <v>0.22222222222222143</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="19">
+        <f>(S18-T18)</f>
+        <v>1.4444444444444429</v>
+      </c>
+      <c r="T19" s="19"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="P24" s="10"/>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D26" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="L26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <f>CORREL(B2:B19,C2:C19)</f>
+        <v>0.18659012911108452</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D28" s="27">
+        <v>18</v>
+      </c>
+      <c r="E28" s="27">
+        <v>22</v>
+      </c>
+      <c r="F28" s="27">
+        <v>28</v>
+      </c>
+      <c r="G28" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="H28" s="28">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I28" s="28">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D24:I24"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Documentação/analytics.xlsx
+++ b/Documentação/analytics.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Temperatura</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Avícolas </t>
+  </si>
+  <si>
+    <t>22-23</t>
   </si>
 </sst>
 </file>
@@ -273,12 +276,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,15 +286,25 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Ênfase2" xfId="5" builtinId="34"/>
@@ -3160,15 +3167,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>70756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:colOff>680358</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3487,10 +3494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V30"/>
+  <dimension ref="B1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3499,7 +3506,7 @@
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3578,7 +3585,7 @@
       <c r="B9" s="3">
         <v>21</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>66</v>
       </c>
     </row>
@@ -3747,20 +3754,20 @@
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="20">
+      <c r="K19" s="23">
         <f>(K18-L18)</f>
         <v>0.22222222222222143</v>
       </c>
-      <c r="L19" s="19"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="12"/>
       <c r="N19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
-      <c r="S19" s="19">
+      <c r="S19" s="24">
         <f>(S18-T18)</f>
         <v>1.4444444444444429</v>
       </c>
-      <c r="T19" s="19"/>
+      <c r="T19" s="24"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
     </row>
@@ -3778,113 +3785,113 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="R24" s="7"/>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D25" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="D25" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D26" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="L26" t="s">
-        <v>8</v>
-      </c>
+      <c r="D26" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="L27" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E28" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F28" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H28" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L27">
+      <c r="L28">
         <f>CORREL(B2:B19,C2:C19)</f>
         <v>0.18659012911108452</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D28" s="27">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D29" s="21">
         <v>18</v>
       </c>
-      <c r="E28" s="27">
-        <v>22</v>
-      </c>
-      <c r="F28" s="27">
+      <c r="E29" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="21">
         <v>28</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G29" s="29">
         <v>0.4</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H29" s="29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I29" s="29">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="S19:T19"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
     <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D24:I24"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentação/analytics.xlsx
+++ b/Documentação/analytics.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Temperatura</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Valor máximo</t>
   </si>
   <si>
-    <t>CORRELATIVA</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
@@ -76,6 +73,30 @@
   <si>
     <t>22-23</t>
   </si>
+  <si>
+    <t>Correlativa</t>
+  </si>
+  <si>
+    <t>Ação</t>
+  </si>
+  <si>
+    <t>Cor</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Alerta Verbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal </t>
+  </si>
+  <si>
+    <t>Alerta Visual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary de cores </t>
+  </si>
 </sst>
 </file>
 
@@ -84,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,7 +129,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -116,7 +137,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -124,14 +145,52 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,12 +251,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -209,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -245,6 +298,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -256,53 +346,108 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -350,13 +495,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -383,13 +534,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -409,29 +566,80 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$B$2:$B$19</c:f>
@@ -503,14 +711,14 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="523954104"/>
         <c:axId val="523955744"/>
@@ -529,9 +737,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -545,9 +753,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -576,9 +783,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -604,9 +811,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -641,17 +847,28 @@
     </c:extLst>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -688,7 +905,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44341917354630794"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -702,11 +926,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -720,7 +943,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.4795158067928079E-2"/>
+          <c:y val="0.15842007785991175"/>
+          <c:w val="0.9652048419320719"/>
+          <c:h val="0.71136681578444405"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -739,29 +972,80 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$C$2:$C$19</c:f>
@@ -799,7 +1083,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>70</c:v>
@@ -833,14 +1117,14 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="532560384"/>
         <c:axId val="532561696"/>
@@ -852,19 +1136,38 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -875,9 +1178,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -905,12 +1207,23 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -934,9 +1247,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -972,11 +1284,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1200,7 +1515,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>70</c:v>
@@ -1509,35 +1824,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1545,26 +1858,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1573,9 +1894,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1594,14 +1914,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1610,20 +1922,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1632,13 +1944,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1650,10 +1962,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1662,16 +1974,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1689,21 +2002,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1713,7 +2023,372 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1722,389 +2397,6 @@
           <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2112,557 +2404,90 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
           <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
@@ -2672,6 +2497,535 @@
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
@@ -3094,14 +3448,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
@@ -3130,16 +3484,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>7485</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3166,16 +3520,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>70756</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>207510</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>77559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>680358</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>928688</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3494,404 +3848,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V31"/>
+  <dimension ref="B1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="12.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="32"/>
+    <col min="5" max="5" width="8.85546875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="12" style="32" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="32"/>
+    <col min="9" max="9" width="21.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="13" style="32" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="32" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="32" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="32" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="32" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" style="32" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="32" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="32" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="32" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="32" customWidth="1"/>
+    <col min="30" max="31" width="14.140625" style="32" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="33">
         <v>18</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="34">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="33">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="34">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="33">
         <v>25</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="34">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="33">
         <v>23</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="34">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="33">
         <v>22</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="34">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="33">
         <v>18</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="34">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="33">
         <v>22</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="34">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="33">
         <v>21</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="34">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="33">
         <v>26</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="34">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="33">
         <v>22</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="34">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="33">
         <v>25</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="33">
+        <v>22</v>
+      </c>
+      <c r="C13" s="34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="33">
+        <v>21</v>
+      </c>
+      <c r="C14" s="34">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="33">
+        <v>20</v>
+      </c>
+      <c r="C15" s="34">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="33">
+        <v>26</v>
+      </c>
+      <c r="C16" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B17" s="33">
+        <v>19</v>
+      </c>
+      <c r="C17" s="34">
+        <v>66</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="I17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="35"/>
+      <c r="U17" s="32">
+        <f>CORREL(B2:B19,C2:C19)</f>
+        <v>0.11989228275459898</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B18" s="33">
         <v>22</v>
       </c>
-      <c r="C13" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="C18" s="34">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2">
-        <v>66</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2">
-        <v>50</v>
-      </c>
-      <c r="I18" s="11">
+      <c r="E18" s="36"/>
+      <c r="F18" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3">
         <f>QUARTILE(B2:B19,0)</f>
         <v>18</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="4">
+        <f>(I18+K18)/2</f>
+        <v>19.125</v>
+      </c>
+      <c r="K18" s="4">
         <f>QUARTILE(B2:B19,1)</f>
         <v>20.25</v>
       </c>
-      <c r="K18" s="10">
+      <c r="L18" s="5">
+        <f>(K18+M18)/2</f>
+        <v>21.236111111111111</v>
+      </c>
+      <c r="M18" s="6">
         <f>AVERAGE(B2:B19)</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="L18" s="9">
+      <c r="N18" s="5">
         <f>MEDIAN(B2:B19)</f>
         <v>22</v>
       </c>
-      <c r="M18" s="14">
+      <c r="O18" s="7">
+        <f>(N18+P18)/2</f>
+        <v>23.25</v>
+      </c>
+      <c r="P18" s="8">
         <f>QUARTILE(B2:B19,3)</f>
         <v>24.5</v>
       </c>
-      <c r="N18" s="15">
+      <c r="Q18" s="8">
+        <f>(P18+R18)/2</f>
+        <v>26.25</v>
+      </c>
+      <c r="R18" s="9">
         <f>QUARTILE(B2:B19,4)</f>
         <v>28</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="S18" s="35"/>
+      <c r="U18" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B19" s="33">
+        <v>28</v>
+      </c>
+      <c r="C19" s="34">
+        <v>80</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="13">
+        <f>(M18-N18)</f>
+        <v>0.22222222222222143</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="35"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="F20" s="24"/>
+      <c r="G20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="35"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="F21" s="26"/>
+      <c r="G21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="35"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="F22" s="28"/>
+      <c r="G22" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="35"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="C23" s="38"/>
+      <c r="G23" s="36"/>
+      <c r="P23" s="39"/>
+      <c r="S23" s="40"/>
+      <c r="U23" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="G24" s="36"/>
+      <c r="U24" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="U25" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="U26" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="V26" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="X26" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="U27" s="44">
+        <v>18</v>
+      </c>
+      <c r="V27" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="W27" s="44">
+        <v>28</v>
+      </c>
+      <c r="X27" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="Y27" s="47">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z27" s="47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+    </row>
+    <row r="40" spans="6:18" x14ac:dyDescent="0.35">
+      <c r="F40" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="I40" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N40" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="6:18" x14ac:dyDescent="0.35">
+      <c r="F41" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="50">
         <f>QUARTILE(C2:C19,0)</f>
         <v>40</v>
       </c>
-      <c r="R18" s="18">
+      <c r="J41" s="51">
+        <f>(I41+K41)/2</f>
+        <v>45</v>
+      </c>
+      <c r="K41" s="51">
         <f>QUARTILE(C2:C19,1)</f>
         <v>50</v>
       </c>
-      <c r="S18" s="17">
+      <c r="L41" s="52">
+        <f>(K41+M41)/2</f>
+        <v>52.944444444444443</v>
+      </c>
+      <c r="M41" s="52">
         <f>AVERAGE(C2:C19)</f>
-        <v>56.444444444444443</v>
-      </c>
-      <c r="T18" s="17">
+        <v>55.888888888888886</v>
+      </c>
+      <c r="N41" s="52">
         <f>MEDIAN(C2:C19,)</f>
         <v>55</v>
       </c>
-      <c r="U18" s="18">
+      <c r="O41" s="52">
+        <f>(N41+P41)/2</f>
+        <v>59.375</v>
+      </c>
+      <c r="P41" s="51">
         <f>QUARTILE(C2:C19,3)</f>
         <v>63.75</v>
       </c>
-      <c r="V18" s="16">
+      <c r="Q41" s="51">
+        <f>(P41+R41)/2</f>
+        <v>71.875</v>
+      </c>
+      <c r="R41" s="50">
         <f>QUARTILE(C2:C19,4)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2">
-        <v>80</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="23">
-        <f>(K18-L18)</f>
-        <v>0.22222222222222143</v>
-      </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="24">
-        <f>(S18-T18)</f>
-        <v>1.4444444444444429</v>
-      </c>
-      <c r="T19" s="24"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
+    <row r="42" spans="6:18" x14ac:dyDescent="0.35">
+      <c r="F42" s="22"/>
+      <c r="G42" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="56">
+        <f>(M41-N41)</f>
+        <v>0.88888888888888573</v>
+      </c>
+      <c r="N42" s="56"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="53"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
+    <row r="43" spans="6:18" x14ac:dyDescent="0.35">
+      <c r="F43" s="24"/>
+      <c r="G43" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="53"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
+    <row r="44" spans="6:18" x14ac:dyDescent="0.35">
+      <c r="F44" s="26"/>
+      <c r="G44" s="27" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D25" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D26" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D27" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="L27" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D28" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28">
-        <f>CORREL(B2:B19,C2:C19)</f>
-        <v>0.18659012911108452</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D29" s="21">
-        <v>18</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="21">
-        <v>28</v>
-      </c>
-      <c r="G29" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="H29" s="29">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I29" s="29">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+    <row r="45" spans="6:18" x14ac:dyDescent="0.35">
+      <c r="F45" s="28"/>
+      <c r="G45" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D25:I25"/>
+  <mergeCells count="13">
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="U24:Z24"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="U23:Z23"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="N27:O27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentação/analytics.xlsx
+++ b/Documentação/analytics.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Documents\SenSolutions\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\git arquivos\SenSolutions\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174EAC1A-6BA2-42C5-B0F3-4DCD0C35F9EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Temperatura</t>
   </si>
@@ -74,9 +75,6 @@
     <t>22-23</t>
   </si>
   <si>
-    <t>Correlativa</t>
-  </si>
-  <si>
     <t>Ação</t>
   </si>
   <si>
@@ -97,15 +95,21 @@
   <si>
     <t xml:space="preserve">Summary de cores </t>
   </si>
+  <si>
+    <t>Correlação</t>
+  </si>
+  <si>
+    <t>Extremos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +193,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +285,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +385,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
@@ -360,31 +399,14 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -402,28 +424,13 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="10" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,10 +442,16 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -447,9 +460,43 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Ênfase2" xfId="5" builtinId="34"/>
@@ -520,7 +567,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -622,7 +668,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -837,7 +882,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -845,6 +889,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1028,7 +1073,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1273,7 +1317,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1281,6 +1324,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3464,7 +3508,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC0785A-327F-4422-B134-6CAFF664B236}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3500,7 +3544,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848772DD-0CC6-42E5-9C21-B2722CFC1D0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3533,7 +3577,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3847,187 +3897,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="32"/>
-    <col min="2" max="2" width="12.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="32"/>
-    <col min="5" max="5" width="8.85546875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="12" style="32" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="32"/>
-    <col min="9" max="9" width="21.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="32" customWidth="1"/>
-    <col min="13" max="13" width="13" style="32" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="32" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="32" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="32" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="32" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" style="32" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="32" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="32" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="32" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="32" customWidth="1"/>
-    <col min="30" max="31" width="14.140625" style="32" customWidth="1"/>
-    <col min="32" max="32" width="13.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="12.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="25"/>
+    <col min="5" max="5" width="8.85546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12" style="25" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="25"/>
+    <col min="9" max="9" width="21.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="13" style="25" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="25" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="25" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="25" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="25" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" style="25" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="25" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="25" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="25" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="25" customWidth="1"/>
+    <col min="30" max="31" width="14.140625" style="25" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="33">
+      <c r="B2" s="26">
         <v>18</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="27">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="33">
+      <c r="B3" s="26">
         <v>20</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="27">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="33">
+      <c r="B4" s="26">
         <v>25</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="27">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="33">
+      <c r="B5" s="26">
         <v>23</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="27">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="33">
+      <c r="B6" s="26">
         <v>22</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="27">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="33">
+      <c r="B7" s="26">
         <v>18</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="27">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="33">
+      <c r="B8" s="26">
         <v>22</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="27">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="33">
+      <c r="B9" s="26">
         <v>21</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="27">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="33">
+      <c r="B10" s="26">
         <v>26</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="27">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="33">
+      <c r="B11" s="26">
         <v>22</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="27">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="33">
+      <c r="B12" s="26">
         <v>25</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="27">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="33">
+      <c r="B13" s="26">
         <v>22</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="27">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="33">
+      <c r="B14" s="26">
         <v>21</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="27">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="33">
+      <c r="B15" s="26">
         <v>20</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="27">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="33">
+      <c r="B16" s="26">
         <v>26</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="27">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B17" s="33">
+      <c r="B17" s="26">
         <v>19</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="27">
         <v>66</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="20"/>
+      <c r="F17" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="47"/>
       <c r="I17" s="1" t="s">
         <v>2</v>
       </c>
@@ -4050,31 +4100,31 @@
       <c r="R17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S17" s="35"/>
-      <c r="U17" s="32">
+      <c r="S17" s="28"/>
+      <c r="U17" s="25">
         <f>CORREL(B2:B19,C2:C19)</f>
         <v>0.11989228275459898</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B18" s="33">
+      <c r="B18" s="26">
         <v>22</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="27">
         <v>50</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="21" t="s">
+      <c r="E18" s="29"/>
+      <c r="F18" s="16" t="s">
         <v>15</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="I18" s="3">
         <f>QUARTILE(B2:B19,0)</f>
         <v>18</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="61">
         <f>(I18+K18)/2</f>
         <v>19.125</v>
       </c>
@@ -4102,7 +4152,7 @@
         <f>QUARTILE(B2:B19,3)</f>
         <v>24.5</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="59">
         <f>(P18+R18)/2</f>
         <v>26.25</v>
       </c>
@@ -4110,299 +4160,313 @@
         <f>QUARTILE(B2:B19,4)</f>
         <v>28</v>
       </c>
-      <c r="S18" s="35"/>
-      <c r="U18" s="37" t="s">
-        <v>14</v>
+      <c r="S18" s="28"/>
+      <c r="U18" s="30" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B19" s="33">
+      <c r="B19" s="26">
         <v>28</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="27">
         <v>80</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23" t="s">
-        <v>18</v>
+      <c r="E19" s="29"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65" t="s">
+        <v>17</v>
       </c>
       <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="11"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="13">
+      <c r="M19" s="52">
         <f>(M18-N18)</f>
         <v>0.22222222222222143</v>
       </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="13"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="35"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="F20" s="24"/>
-      <c r="G20" s="25" t="s">
-        <v>20</v>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="11"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="18"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="35"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="F21" s="26"/>
-      <c r="G21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="35"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21" s="28"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="F22" s="28"/>
-      <c r="G22" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="S22" s="35"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" s="28"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="C23" s="38"/>
-      <c r="G23" s="36"/>
-      <c r="P23" s="39"/>
-      <c r="S23" s="40"/>
-      <c r="U23" s="41" t="s">
+      <c r="C23" s="31"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="32"/>
+      <c r="S23" s="33"/>
+      <c r="U23" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="G24" s="36"/>
-      <c r="U24" s="41" t="s">
+      <c r="G24" s="29"/>
+      <c r="U24" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="U25" s="42" t="s">
+      <c r="U25" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="43" t="s">
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="U26" s="44" t="s">
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="U26" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="V26" s="44" t="s">
+      <c r="V26" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="W26" s="44" t="s">
+      <c r="W26" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="X26" s="45" t="s">
+      <c r="X26" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="Y26" s="45" t="s">
+      <c r="Y26" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="Z26" s="45" t="s">
+      <c r="Z26" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="U27" s="44">
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="U27" s="34">
         <v>18</v>
       </c>
-      <c r="V27" s="44" t="s">
+      <c r="V27" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="W27" s="44">
+      <c r="W27" s="34">
         <v>28</v>
       </c>
-      <c r="X27" s="47">
+      <c r="X27" s="36">
         <v>0.4</v>
       </c>
-      <c r="Y27" s="47">
+      <c r="Y27" s="36">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z27" s="47">
+      <c r="Z27" s="36">
         <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
     </row>
     <row r="40" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F40" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="I40" s="34" t="s">
+      <c r="F40" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="47"/>
+      <c r="I40" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34" t="s">
+      <c r="J40" s="27"/>
+      <c r="K40" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34" t="s">
+      <c r="L40" s="27"/>
+      <c r="M40" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="N40" s="34" t="s">
+      <c r="N40" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34" t="s">
+      <c r="O40" s="27"/>
+      <c r="P40" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34" t="s">
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F41" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="21" t="s">
+      <c r="F41" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="50">
+      <c r="G41" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="38">
         <f>QUARTILE(C2:C19,0)</f>
         <v>40</v>
       </c>
-      <c r="J41" s="51">
+      <c r="J41" s="62">
         <f>(I41+K41)/2</f>
         <v>45</v>
       </c>
-      <c r="K41" s="51">
+      <c r="K41" s="39">
         <f>QUARTILE(C2:C19,1)</f>
         <v>50</v>
       </c>
-      <c r="L41" s="52">
+      <c r="L41" s="40">
         <f>(K41+M41)/2</f>
         <v>52.944444444444443</v>
       </c>
-      <c r="M41" s="52">
+      <c r="M41" s="40">
         <f>AVERAGE(C2:C19)</f>
         <v>55.888888888888886</v>
       </c>
-      <c r="N41" s="52">
+      <c r="N41" s="40">
         <f>MEDIAN(C2:C19,)</f>
         <v>55</v>
       </c>
-      <c r="O41" s="52">
+      <c r="O41" s="40">
         <f>(N41+P41)/2</f>
         <v>59.375</v>
       </c>
-      <c r="P41" s="51">
+      <c r="P41" s="39">
         <f>QUARTILE(C2:C19,3)</f>
         <v>63.75</v>
       </c>
-      <c r="Q41" s="51">
+      <c r="Q41" s="62">
         <f>(P41+R41)/2</f>
         <v>71.875</v>
       </c>
-      <c r="R41" s="50">
+      <c r="R41" s="38">
         <f>QUARTILE(C2:C19,4)</f>
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F42" s="22"/>
-      <c r="G42" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="56">
+      <c r="F42" s="64"/>
+      <c r="G42" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="41"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="54">
         <f>(M41-N41)</f>
         <v>0.88888888888888573</v>
       </c>
-      <c r="N42" s="56"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="53"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F43" s="24"/>
-      <c r="G43" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="53"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="41"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F44" s="26"/>
-      <c r="G44" s="27" t="s">
-        <v>19</v>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F45" s="28"/>
-      <c r="G45" s="29" t="s">
-        <v>17</v>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="6:18" x14ac:dyDescent="0.35">
+      <c r="F46" s="41"/>
+      <c r="G46" s="67" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="U24:Z24"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="U23:Z23"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="M43:N43"/>
@@ -4410,11 +4474,6 @@
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="M42:N42"/>
-    <mergeCell ref="U24:Z24"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="U23:Z23"/>
-    <mergeCell ref="M20:N20"/>
     <mergeCell ref="N27:O27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
